--- a/docs/capabilities/directional/capability_directional_metadata.xlsx
+++ b/docs/capabilities/directional/capability_directional_metadata.xlsx
@@ -593,7 +593,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>observe</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
